--- a/API명세 및 TABLE.xlsx
+++ b/API명세 및 TABLE.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HHworkspace\spring\workspace\board\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7919A9-2AFA-49D7-979F-07AFF29815A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ENTITY" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="API명세" sheetId="2" r:id="rId5"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
+    <sheet name="API명세" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -272,29 +281,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,70 +320,174 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120EAA22-F306-4382-B926-E39248484A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="2581275"/>
+          <a:ext cx="7772400" cy="1724689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280ED3E7-96D1-937E-F582-C827354F8BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="843749" y="2801216"/>
+          <a:ext cx="8004976" cy="7604726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -556,30 +677,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C2:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="13.63"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="17.25"/>
-    <col customWidth="1" min="7" max="7" width="12.75"/>
-    <col customWidth="1" min="8" max="8" width="12.13"/>
-    <col customWidth="1" min="9" max="9" width="15.88"/>
-    <col customWidth="1" min="10" max="10" width="15.0"/>
-    <col customWidth="1" min="11" max="11" width="13.5"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +718,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,7 +731,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
@@ -631,49 +757,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
@@ -683,109 +809,115 @@
       <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B8:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="13.63"/>
-    <col customWidth="1" min="3" max="3" width="8.25"/>
-    <col customWidth="1" min="4" max="4" width="11.25"/>
-    <col customWidth="1" min="5" max="5" width="28.5"/>
-    <col customWidth="1" min="6" max="6" width="53.88"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
@@ -802,88 +934,90 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/API명세 및 TABLE.xlsx
+++ b/API명세 및 TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HHworkspace\spring\workspace\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7919A9-2AFA-49D7-979F-07AFF29815A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FB2D5B-0CE6-4746-BACE-A63E8D8ECEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>Table_name</t>
   </si>
@@ -165,6 +165,58 @@
   </si>
   <si>
     <t>/api/boards</t>
+  </si>
+  <si>
+    <t>특정 게시글 조회</t>
+  </si>
+  <si>
+    <t>/api/board/{id}</t>
+  </si>
+  <si>
+    <t>게시글 수정</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>{
+     "name": "1",
+     "password": "10",
+     "title": "title 1 updated ",
+     "contents": "contents 1  updated "
+}</t>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/api/board</t>
+  </si>
+  <si>
+    <t>{
+     "name": "3",
+     "password": "30",
+     "title": "title 3",
+     "contents": "contents 3"
+}</t>
+  </si>
+  <si>
+    <t>게시글 삭제</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>{
+    "password": " 20"
+}
+==================
+{
+    "password": "200"
+}</t>
   </si>
   <si>
     <t>[
@@ -187,12 +239,7 @@
         "modifiedAt": "2023-06-24T21:49:47.583303"
     }
 ]</t>
-  </si>
-  <si>
-    <t>특정 게시글 조회</t>
-  </si>
-  <si>
-    <t>/api/board/{id}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -201,20 +248,7 @@
     "contents": "contents 3",
     "createAt": "2023-06-24T21:48:45.026257"
 }</t>
-  </si>
-  <si>
-    <t>게시글 수정</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>{
-     "name": "1",
-     "password": "10",
-     "title": "title 1 updated ",
-     "contents": "contents 1  updated "
-}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -226,23 +260,7 @@
         "createAt": "2023-06-24T21:48:23.524121",
         "modifiedAt": "2023-06-24T21:49:47.583303"
     }</t>
-  </si>
-  <si>
-    <t>게시글 작성</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>/api/board</t>
-  </si>
-  <si>
-    <t>{
-     "name": "3",
-     "password": "30",
-     "title": "title 3",
-     "contents": "contents 3"
-}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -254,35 +272,336 @@
     "createAt": "2023-06-24T21:48:45.0262572",
     "modifiedAt": "2023-06-24T21:48:45.0262572"
 }</t>
-  </si>
-  <si>
-    <t>게시글 삭제</t>
-  </si>
-  <si>
-    <t>DELETE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">성공시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        ok
+========================
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">실패시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        failure</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차 과제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 과제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/signup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "password": " 20"
-}
-==================
-{
-    "password": "200"
+    "username" : "user1234",
+    "password" : "11111111"
 }</t>
-  </si>
-  <si>
-    <t>성공시
-        ok
-========================
-실패시
-        failure</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "status": 200
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request-header</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Authorization : { JWT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">토큰 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+    "status": 200
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "username": "user1234",
+        "title": "title",
+        "contents": "contents",
+        "createAt": "2023-06-28T18:05:26.668368",
+        "modifiedAt": "2023-06-28T18:05:26.668368"
+    }
+]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "username": "user1234",
+    "title": "title",
+    "contents": "contents",
+    "createAt": "2023-06-28T18:05:26.668368",
+    "modifiedAt": "2023-06-28T18:05:26.668368"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "title": "title updated",
+    "contents": "contents updated"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "username": "user1234",
+    "title": "title updated",
+    "contents": "contents updated",
+    "createAt": "2023-06-28T18:05:26.668368",
+    "modifiedAt": "2023-06-28T18:05:26.668368"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "title": "title",
+    "contents": "contents"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "username": "user1234",
+    "title": "title",
+    "contents": "contents",
+    "createAt": "2023-06-28T18:05:26.6683678",
+    "modifiedAt": "2023-06-28T18:05:26.6683678"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",
+    "status": 200
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,13 +633,108 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -335,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +772,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,16 +871,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5549</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>866</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>4642</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>509467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -473,8 +909,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="843749" y="2801216"/>
+          <a:off x="9863924" y="1762991"/>
           <a:ext cx="8004976" cy="7604726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>357270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>425822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC3376E-B321-B48C-AECE-D2AF098E6949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14542749" y="10992970"/>
+          <a:ext cx="12103521" cy="7283823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -693,7 +1173,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -705,7 +1185,7 @@
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:11" ht="15">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +1198,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:11" ht="15">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
@@ -731,7 +1211,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="15.75" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
@@ -757,7 +1237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:11" ht="12.75">
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
@@ -781,7 +1261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:11" ht="12.75">
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
@@ -799,7 +1279,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:11" ht="12.75">
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
@@ -813,7 +1293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:11" ht="12.75">
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
@@ -833,7 +1313,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:11" ht="12.75">
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
@@ -851,7 +1331,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:11" ht="12.75">
       <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
@@ -871,7 +1351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:11" ht="12.75">
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
@@ -902,22 +1382,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B8:F13"/>
+  <dimension ref="A5:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="7" max="7" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.25">
+      <c r="A5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
@@ -934,7 +1421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="255">
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
@@ -945,75 +1432,231 @@
         <v>47</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="76.5">
+      <c r="B10" s="8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="114.75">
+      <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="114.75">
+      <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="92.25">
+      <c r="B13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
+      <c r="A17" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51">
+      <c r="B19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51">
+      <c r="B20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="127.5">
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102">
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="96">
+      <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="96">
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="E24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48">
+      <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G30" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
